--- a/ValueSet-restricted-event-status.xlsx
+++ b/ValueSet-restricted-event-status.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-26T10:09:22+00:00</t>
+    <t>2021-11-08T12:56:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-restricted-event-status.xlsx
+++ b/ValueSet-restricted-event-status.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-08T12:56:21+00:00</t>
+    <t>2021-11-08T13:55:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-restricted-event-status.xlsx
+++ b/ValueSet-restricted-event-status.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-08T13:55:44+00:00</t>
+    <t>2021-11-10T17:43:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-restricted-event-status.xlsx
+++ b/ValueSet-restricted-event-status.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-10T17:43:23+00:00</t>
+    <t>2021-11-10T19:08:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
